--- a/Result/checkall/2025-07-12.xlsx
+++ b/Result/checkall/2025-07-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC1"/>
+  <dimension ref="A1:BA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,125 +586,115 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>短交易量</t>
+          <t>Volume_MA_short</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量</t>
+          <t>Volume_MA_long</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Volume_MA_short</t>
+          <t>Volume_Oscillator</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Volume_MA_long</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Oscillator</t>
+          <t>highlight_date</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Volume_Price_Change_sum</t>
+          <t>highlight_enddate</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>highlight_date</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>highlight_enddate</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>Full_Summary</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>淨值倍率</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Full_Summary</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>淨值倍率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>營業毛利率</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>營業利益率</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>營業毛利率</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>營業利益率</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>營收比重</t>
+          <t>Typelevel</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>每股淨值(元)</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Typelevel</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>每股淨值(元)</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
